--- a/Code/Results/Cases/Case_8_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006068884496525</v>
+        <v>1.004528707954746</v>
       </c>
       <c r="D2">
-        <v>1.024159977565923</v>
+        <v>1.022747833778251</v>
       </c>
       <c r="E2">
-        <v>1.021308259242329</v>
+        <v>1.020092615027068</v>
       </c>
       <c r="F2">
-        <v>1.031550997162675</v>
+        <v>1.030595962265263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04583104429072</v>
+        <v>1.045246589130763</v>
       </c>
       <c r="J2">
-        <v>1.028069579172494</v>
+        <v>1.026574804750085</v>
       </c>
       <c r="K2">
-        <v>1.035292681809571</v>
+        <v>1.033899096962173</v>
       </c>
       <c r="L2">
-        <v>1.03247850813145</v>
+        <v>1.031278948695543</v>
       </c>
       <c r="M2">
-        <v>1.042587602755857</v>
+        <v>1.041644888279249</v>
       </c>
       <c r="N2">
-        <v>1.029529555896149</v>
+        <v>1.024497511043801</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042277619300243</v>
+        <v>1.041531525449245</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036025230621626</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03504864451794</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021091937240767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009823433918255</v>
+        <v>1.007967064263823</v>
       </c>
       <c r="D3">
-        <v>1.026557157342898</v>
+        <v>1.024856742534735</v>
       </c>
       <c r="E3">
-        <v>1.024222569114453</v>
+        <v>1.022752187781981</v>
       </c>
       <c r="F3">
-        <v>1.034342701095869</v>
+        <v>1.033189072336041</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046451398242657</v>
+        <v>1.045742219692308</v>
       </c>
       <c r="J3">
-        <v>1.030049837938673</v>
+        <v>1.028242870470333</v>
       </c>
       <c r="K3">
-        <v>1.036861146845335</v>
+        <v>1.035181156369613</v>
       </c>
       <c r="L3">
-        <v>1.034554621800829</v>
+        <v>1.033101997007699</v>
       </c>
       <c r="M3">
-        <v>1.044554237371699</v>
+        <v>1.043414199040157</v>
       </c>
       <c r="N3">
-        <v>1.031512626856914</v>
+        <v>1.025432772127712</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043834073247072</v>
+        <v>1.042931812934711</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.0371316052687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035952226293328</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021337683520993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012211957055053</v>
+        <v>1.010156319245998</v>
       </c>
       <c r="D4">
-        <v>1.02808531930464</v>
+        <v>1.02620256733121</v>
       </c>
       <c r="E4">
-        <v>1.026082566876546</v>
+        <v>1.02445144403214</v>
       </c>
       <c r="F4">
-        <v>1.03612543330145</v>
+        <v>1.034846573061278</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046836694989726</v>
+        <v>1.046048523508074</v>
       </c>
       <c r="J4">
-        <v>1.031308355578914</v>
+        <v>1.029303745691529</v>
       </c>
       <c r="K4">
-        <v>1.037856195957821</v>
+        <v>1.035994710502492</v>
       </c>
       <c r="L4">
-        <v>1.035876068767146</v>
+        <v>1.034263453431627</v>
       </c>
       <c r="M4">
-        <v>1.045806562773591</v>
+        <v>1.044541863012238</v>
       </c>
       <c r="N4">
-        <v>1.032772931736558</v>
+        <v>1.026027586367654</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04482519960751</v>
+        <v>1.043824279816196</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037836093146574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036528464801411</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021491238815811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013209662286453</v>
+        <v>1.011071072399075</v>
       </c>
       <c r="D5">
-        <v>1.028726498271713</v>
+        <v>1.026767781318489</v>
       </c>
       <c r="E5">
-        <v>1.026861118997972</v>
+        <v>1.025163038804257</v>
       </c>
       <c r="F5">
-        <v>1.036871428994786</v>
+        <v>1.035540423166293</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046996757870241</v>
+        <v>1.046175640498978</v>
       </c>
       <c r="J5">
-        <v>1.03183510231402</v>
+        <v>1.029748023400231</v>
       </c>
       <c r="K5">
-        <v>1.038273926163149</v>
+        <v>1.036336751315024</v>
       </c>
       <c r="L5">
-        <v>1.036429060168666</v>
+        <v>1.034749733289025</v>
       </c>
       <c r="M5">
-        <v>1.046330348502553</v>
+        <v>1.045013689597091</v>
       </c>
       <c r="N5">
-        <v>1.033300426512447</v>
+        <v>1.026276684295514</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045239738307887</v>
+        <v>1.044197697115729</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038138653711807</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036778225922439</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021555678518637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013380379785207</v>
+        <v>1.011227445659842</v>
       </c>
       <c r="D6">
-        <v>1.028838848137281</v>
+        <v>1.026867092512299</v>
       </c>
       <c r="E6">
-        <v>1.026994671421192</v>
+        <v>1.025285009784182</v>
       </c>
       <c r="F6">
-        <v>1.036998869196364</v>
+        <v>1.035658846831794</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047025719790547</v>
+        <v>1.046198931220928</v>
       </c>
       <c r="J6">
-        <v>1.031926894723405</v>
+        <v>1.029825552079168</v>
       </c>
       <c r="K6">
-        <v>1.038348744759316</v>
+        <v>1.036398576364859</v>
       </c>
       <c r="L6">
-        <v>1.036524755430141</v>
+        <v>1.034833888409732</v>
       </c>
       <c r="M6">
-        <v>1.046420497596925</v>
+        <v>1.045094853480942</v>
       </c>
       <c r="N6">
-        <v>1.033392349277582</v>
+        <v>1.026320153077368</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04531108480316</v>
+        <v>1.044261932557773</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038200323092267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036831586771023</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021567853728837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012235407242445</v>
+        <v>1.010198555569726</v>
       </c>
       <c r="D7">
-        <v>1.02810733520982</v>
+        <v>1.026237810692651</v>
       </c>
       <c r="E7">
-        <v>1.02610154599811</v>
+        <v>1.024486301570503</v>
       </c>
       <c r="F7">
-        <v>1.036142160599155</v>
+        <v>1.034875775389483</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046845052250215</v>
+        <v>1.046063401128165</v>
       </c>
       <c r="J7">
-        <v>1.031325247110161</v>
+        <v>1.029338934144109</v>
       </c>
       <c r="K7">
-        <v>1.037875072064496</v>
+        <v>1.036026656158502</v>
       </c>
       <c r="L7">
-        <v>1.035891933721631</v>
+        <v>1.03429500933364</v>
       </c>
       <c r="M7">
-        <v>1.04582024333917</v>
+        <v>1.044567875042369</v>
       </c>
       <c r="N7">
-        <v>1.032789847255716</v>
+        <v>1.0260996598319</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04483602679337</v>
+        <v>1.043844866499326</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037869603596269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03657323776184</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021500574507469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007359013623587</v>
+        <v>1.005775671059123</v>
       </c>
       <c r="D8">
-        <v>1.024991595472461</v>
+        <v>1.023527802808673</v>
       </c>
       <c r="E8">
-        <v>1.022309320196287</v>
+        <v>1.021061415901735</v>
       </c>
       <c r="F8">
-        <v>1.032507900828054</v>
+        <v>1.031528067181129</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046051785123683</v>
+        <v>1.045447638762868</v>
       </c>
       <c r="J8">
-        <v>1.028755879043425</v>
+        <v>1.027217649734424</v>
       </c>
       <c r="K8">
-        <v>1.035843355073589</v>
+        <v>1.034398233912137</v>
       </c>
       <c r="L8">
-        <v>1.033195344705318</v>
+        <v>1.031963458571094</v>
       </c>
       <c r="M8">
-        <v>1.043264825289875</v>
+        <v>1.042297256773102</v>
       </c>
       <c r="N8">
-        <v>1.030216830391615</v>
+        <v>1.025016636462827</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042813594014055</v>
+        <v>1.042047830450482</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036437583854065</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035426845216909</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021195541792532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9984230199011416</v>
+        <v>0.9976176333856948</v>
       </c>
       <c r="D9">
-        <v>1.019297959574091</v>
+        <v>1.018536637057113</v>
       </c>
       <c r="E9">
-        <v>1.015408139613548</v>
+        <v>1.014786154811867</v>
       </c>
       <c r="F9">
-        <v>1.02590462972158</v>
+        <v>1.02541353597194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044518477193733</v>
+        <v>1.044218264773812</v>
       </c>
       <c r="J9">
-        <v>1.024031588564508</v>
+        <v>1.023254800560207</v>
       </c>
       <c r="K9">
-        <v>1.032085511944236</v>
+        <v>1.031335962457356</v>
       </c>
       <c r="L9">
-        <v>1.028256080769689</v>
+        <v>1.02764380706956</v>
       </c>
       <c r="M9">
-        <v>1.038590952370979</v>
+        <v>1.038107326122202</v>
       </c>
       <c r="N9">
-        <v>1.025485830878334</v>
+        <v>1.022813943880865</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039114539341726</v>
+        <v>1.038731780752263</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033777334468931</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033258132918409</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020594697338305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9922951957731641</v>
+        <v>0.9921327396751384</v>
       </c>
       <c r="D10">
-        <v>1.015424163502324</v>
+        <v>1.015221555341375</v>
       </c>
       <c r="E10">
-        <v>1.010745998372058</v>
+        <v>1.010643634589212</v>
       </c>
       <c r="F10">
-        <v>1.02149753553466</v>
+        <v>1.021413707028956</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043439392146103</v>
+        <v>1.043384251807137</v>
       </c>
       <c r="J10">
-        <v>1.020817876225925</v>
+        <v>1.020662010075382</v>
       </c>
       <c r="K10">
-        <v>1.029520404553608</v>
+        <v>1.029321313040443</v>
       </c>
       <c r="L10">
-        <v>1.024923903772047</v>
+        <v>1.024823337855834</v>
       </c>
       <c r="M10">
-        <v>1.035489198436627</v>
+        <v>1.035406802449135</v>
       </c>
       <c r="N10">
-        <v>1.022267554699613</v>
+        <v>1.021593956443815</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036711249037553</v>
+        <v>1.036646041872876</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03198051214938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031852209807683</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020200285479385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9901305277655238</v>
+        <v>0.9903176957023485</v>
       </c>
       <c r="D11">
-        <v>1.014129394318993</v>
+        <v>1.014210811485475</v>
       </c>
       <c r="E11">
-        <v>1.009385984716136</v>
+        <v>1.009570349240674</v>
       </c>
       <c r="F11">
-        <v>1.020600171374912</v>
+        <v>1.020743029216129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043192449198707</v>
+        <v>1.043264890341803</v>
       </c>
       <c r="J11">
-        <v>1.019919731294004</v>
+        <v>1.020098891848671</v>
       </c>
       <c r="K11">
-        <v>1.028789681074474</v>
+        <v>1.028869618147887</v>
       </c>
       <c r="L11">
-        <v>1.024133039570973</v>
+        <v>1.0243140117935</v>
       </c>
       <c r="M11">
-        <v>1.035143781402567</v>
+        <v>1.035284085000049</v>
       </c>
       <c r="N11">
-        <v>1.02136813429887</v>
+        <v>1.021724204205568</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036874906769637</v>
+        <v>1.036985885244544</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03149685161111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031569057970439</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02015737635732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9895210222882428</v>
+        <v>0.9898110892863839</v>
       </c>
       <c r="D12">
-        <v>1.013792845744433</v>
+        <v>1.013955871510833</v>
       </c>
       <c r="E12">
-        <v>1.009130716249178</v>
+        <v>1.009398952018281</v>
       </c>
       <c r="F12">
-        <v>1.020644408102577</v>
+        <v>1.020854189021439</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043185876138566</v>
+        <v>1.043293805117621</v>
       </c>
       <c r="J12">
-        <v>1.019775589098258</v>
+        <v>1.020053010613662</v>
       </c>
       <c r="K12">
-        <v>1.028660482910358</v>
+        <v>1.028820495791948</v>
       </c>
       <c r="L12">
-        <v>1.024085052189574</v>
+        <v>1.024348271399424</v>
       </c>
       <c r="M12">
-        <v>1.035386500830831</v>
+        <v>1.035592472422721</v>
       </c>
       <c r="N12">
-        <v>1.021223787404673</v>
+        <v>1.02189213761985</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037393753870428</v>
+        <v>1.03755661964412</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031405503528139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031534327312444</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020177282803374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.99008066837746</v>
+        <v>0.9902669638773802</v>
       </c>
       <c r="D13">
-        <v>1.014186495990496</v>
+        <v>1.014262373201134</v>
       </c>
       <c r="E13">
-        <v>1.009720882875909</v>
+        <v>1.009902791781202</v>
       </c>
       <c r="F13">
-        <v>1.021436376515436</v>
+        <v>1.021578791584302</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043375816583331</v>
+        <v>1.043442259238046</v>
       </c>
       <c r="J13">
-        <v>1.020216666048944</v>
+        <v>1.020394881628472</v>
       </c>
       <c r="K13">
-        <v>1.029003721353028</v>
+        <v>1.029078202225162</v>
       </c>
       <c r="L13">
-        <v>1.024620769397463</v>
+        <v>1.024799292427313</v>
       </c>
       <c r="M13">
-        <v>1.036121403471921</v>
+        <v>1.036261246094935</v>
       </c>
       <c r="N13">
-        <v>1.021665490735221</v>
+        <v>1.022040984388707</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038251784752217</v>
+        <v>1.038362333214971</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031645682290406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031713785034405</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020248140293424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9910019295232693</v>
+        <v>0.9910252314118554</v>
       </c>
       <c r="D14">
-        <v>1.014794135404325</v>
+        <v>1.014735253742194</v>
       </c>
       <c r="E14">
-        <v>1.010515552437007</v>
+        <v>1.010563033132995</v>
       </c>
       <c r="F14">
-        <v>1.022327603114603</v>
+        <v>1.022364537178495</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043597809196888</v>
+        <v>1.04360200211285</v>
       </c>
       <c r="J14">
-        <v>1.020790086284613</v>
+        <v>1.02081239211462</v>
       </c>
       <c r="K14">
-        <v>1.029458957106924</v>
+        <v>1.029401145627838</v>
       </c>
       <c r="L14">
-        <v>1.025258561048989</v>
+        <v>1.025305169349429</v>
       </c>
       <c r="M14">
-        <v>1.03685682296931</v>
+        <v>1.036893098613455</v>
       </c>
       <c r="N14">
-        <v>1.022239725293397</v>
+        <v>1.022139214082702</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039006558712571</v>
+        <v>1.039035231479264</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031968982707739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031943683553581</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020322142307228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.991486326312529</v>
+        <v>0.9914270461029838</v>
       </c>
       <c r="D15">
-        <v>1.015107336799334</v>
+        <v>1.014980610577338</v>
       </c>
       <c r="E15">
-        <v>1.010902541535493</v>
+        <v>1.010882246279997</v>
       </c>
       <c r="F15">
-        <v>1.022723476754077</v>
+        <v>1.022707137735306</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043698297997333</v>
+        <v>1.043671617177442</v>
       </c>
       <c r="J15">
-        <v>1.021064362237412</v>
+        <v>1.02100759382835</v>
       </c>
       <c r="K15">
-        <v>1.029679488565195</v>
+        <v>1.029555048231751</v>
       </c>
       <c r="L15">
-        <v>1.025550937657107</v>
+        <v>1.025531012411675</v>
       </c>
       <c r="M15">
-        <v>1.037159597532102</v>
+        <v>1.037143547529959</v>
       </c>
       <c r="N15">
-        <v>1.022514390749509</v>
+        <v>1.022168259511232</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039283426476619</v>
+        <v>1.039270740668678</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032130803632131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032058965502282</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020353979620028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9939704975016251</v>
+        <v>0.9935210028109036</v>
       </c>
       <c r="D16">
-        <v>1.016670102278432</v>
+        <v>1.016223053085775</v>
       </c>
       <c r="E16">
-        <v>1.012764933888577</v>
+        <v>1.012426219391045</v>
       </c>
       <c r="F16">
-        <v>1.02446652920225</v>
+        <v>1.024199731056809</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044133039561458</v>
+        <v>1.04396306555239</v>
       </c>
       <c r="J16">
-        <v>1.02234783986845</v>
+        <v>1.021916440839263</v>
       </c>
       <c r="K16">
-        <v>1.030708943965028</v>
+        <v>1.030269609335131</v>
       </c>
       <c r="L16">
-        <v>1.026871463547486</v>
+        <v>1.026538651827413</v>
       </c>
       <c r="M16">
-        <v>1.038372227765962</v>
+        <v>1.038109942628654</v>
       </c>
       <c r="N16">
-        <v>1.023799691065999</v>
+        <v>1.022272066300497</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040203153651396</v>
+        <v>1.039995839417025</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03286185124083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03256767241372</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020483377566041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.995395950794844</v>
+        <v>0.9947533056431163</v>
       </c>
       <c r="D17">
-        <v>1.017553154511525</v>
+        <v>1.016946090312315</v>
       </c>
       <c r="E17">
-        <v>1.013779210284639</v>
+        <v>1.013283725233607</v>
       </c>
       <c r="F17">
-        <v>1.025333082982482</v>
+        <v>1.024943002014177</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044348102186499</v>
+        <v>1.04410761271549</v>
       </c>
       <c r="J17">
-        <v>1.023032212826764</v>
+        <v>1.022414610446989</v>
       </c>
       <c r="K17">
-        <v>1.031260257427034</v>
+        <v>1.030663376967537</v>
       </c>
       <c r="L17">
-        <v>1.027549877799469</v>
+        <v>1.027062783593269</v>
       </c>
       <c r="M17">
-        <v>1.03891104762562</v>
+        <v>1.038527381523255</v>
       </c>
       <c r="N17">
-        <v>1.024485035912413</v>
+        <v>1.022362852200227</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040499965835632</v>
+        <v>1.040196679976285</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033254252196364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032848932098086</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02054744336172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9960295333404765</v>
+        <v>0.9953189400788557</v>
       </c>
       <c r="D18">
-        <v>1.017916536179871</v>
+        <v>1.017252861938391</v>
       </c>
       <c r="E18">
-        <v>1.014128146067698</v>
+        <v>1.01357795567916</v>
       </c>
       <c r="F18">
-        <v>1.025474374972437</v>
+        <v>1.025040896934956</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044385329229825</v>
+        <v>1.044120837535737</v>
       </c>
       <c r="J18">
-        <v>1.023243383878915</v>
+        <v>1.022559966159134</v>
       </c>
       <c r="K18">
-        <v>1.031433010885943</v>
+        <v>1.030780288705858</v>
       </c>
       <c r="L18">
-        <v>1.027707385508929</v>
+        <v>1.02716636074719</v>
       </c>
       <c r="M18">
-        <v>1.038867412731158</v>
+        <v>1.038440951210897</v>
       </c>
       <c r="N18">
-        <v>1.02469650685168</v>
+        <v>1.022361742614671</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040227668887372</v>
+        <v>1.039890483148502</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033364712528225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032918769467043</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02054999680437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9959605061556513</v>
+        <v>0.9952763638550273</v>
       </c>
       <c r="D19">
-        <v>1.017830474451845</v>
+        <v>1.017189958070116</v>
       </c>
       <c r="E19">
-        <v>1.013881836664891</v>
+        <v>1.013353544362888</v>
       </c>
       <c r="F19">
-        <v>1.024960011639281</v>
+        <v>1.024542983209593</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044273581461332</v>
+        <v>1.044020540406046</v>
       </c>
       <c r="J19">
-        <v>1.023041468797259</v>
+        <v>1.022383341374288</v>
       </c>
       <c r="K19">
-        <v>1.031285436028377</v>
+        <v>1.030655435070157</v>
       </c>
       <c r="L19">
-        <v>1.027401895713067</v>
+        <v>1.026882362408463</v>
       </c>
       <c r="M19">
-        <v>1.03829906551085</v>
+        <v>1.037888759870949</v>
       </c>
       <c r="N19">
-        <v>1.024494305027447</v>
+        <v>1.022239446996459</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039452538377183</v>
+        <v>1.039128020233098</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033266792488877</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032837542593818</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020500592753805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9939099272807435</v>
+        <v>0.9935131158820792</v>
       </c>
       <c r="D20">
-        <v>1.016460774618774</v>
+        <v>1.016064067827564</v>
       </c>
       <c r="E20">
-        <v>1.011975814719266</v>
+        <v>1.011681732553807</v>
       </c>
       <c r="F20">
-        <v>1.022658543399097</v>
+        <v>1.022424077509937</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043739002908773</v>
+        <v>1.04359619301055</v>
       </c>
       <c r="J20">
-        <v>1.021677646531135</v>
+        <v>1.021296406708086</v>
       </c>
       <c r="K20">
-        <v>1.030220227433853</v>
+        <v>1.02983021123602</v>
       </c>
       <c r="L20">
-        <v>1.025811302554864</v>
+        <v>1.025522236483011</v>
       </c>
       <c r="M20">
-        <v>1.036314336633166</v>
+        <v>1.036083762806301</v>
       </c>
       <c r="N20">
-        <v>1.023128545977273</v>
+        <v>1.021753563745146</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037353688810288</v>
+        <v>1.037171213339514</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032517580994591</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032258401458703</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020299424438422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9892079223513496</v>
+        <v>0.989614020761562</v>
       </c>
       <c r="D21">
-        <v>1.013480912446653</v>
+        <v>1.013741509162574</v>
       </c>
       <c r="E21">
-        <v>1.00835754595281</v>
+        <v>1.008724657073963</v>
       </c>
       <c r="F21">
-        <v>1.019165253247622</v>
+        <v>1.019451481098746</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042866505694716</v>
+        <v>1.043024346002917</v>
       </c>
       <c r="J21">
-        <v>1.019163889743839</v>
+        <v>1.019552486268326</v>
       </c>
       <c r="K21">
-        <v>1.028211307932893</v>
+        <v>1.028467138686073</v>
       </c>
       <c r="L21">
-        <v>1.02318229330683</v>
+        <v>1.023542602148619</v>
       </c>
       <c r="M21">
-        <v>1.033792408939637</v>
+        <v>1.034073477852577</v>
       </c>
       <c r="N21">
-        <v>1.020611219367007</v>
+        <v>1.021589428905682</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035316796528566</v>
+        <v>1.035539245307901</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031100430883762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031298215442153</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020047161833043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9862172532294265</v>
+        <v>0.9871213852582712</v>
       </c>
       <c r="D22">
-        <v>1.01158799730468</v>
+        <v>1.012260690356628</v>
       </c>
       <c r="E22">
-        <v>1.006080915215727</v>
+        <v>1.006859166524602</v>
       </c>
       <c r="F22">
-        <v>1.016994400368443</v>
+        <v>1.017605541887703</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042306609754921</v>
+        <v>1.042653622568043</v>
       </c>
       <c r="J22">
-        <v>1.017574535138534</v>
+        <v>1.018437428683114</v>
       </c>
       <c r="K22">
-        <v>1.026933336739448</v>
+        <v>1.02759311161252</v>
       </c>
       <c r="L22">
-        <v>1.021532862891372</v>
+        <v>1.022295955725301</v>
       </c>
       <c r="M22">
-        <v>1.03223654874935</v>
+        <v>1.032836115679239</v>
       </c>
       <c r="N22">
-        <v>1.019019607695862</v>
+        <v>1.021438451445962</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034085427492853</v>
+        <v>1.034559948630996</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030183267443301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030665358279073</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019883677784513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9877986586345272</v>
+        <v>0.988407176675992</v>
       </c>
       <c r="D23">
-        <v>1.012582285597505</v>
+        <v>1.013012147660401</v>
       </c>
       <c r="E23">
-        <v>1.007283055831076</v>
+        <v>1.007816066649395</v>
       </c>
       <c r="F23">
-        <v>1.018141924463438</v>
+        <v>1.018558956755723</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042599563789365</v>
+        <v>1.042834119869981</v>
       </c>
       <c r="J23">
-        <v>1.018410918762351</v>
+        <v>1.018992495876269</v>
       </c>
       <c r="K23">
-        <v>1.027601402359938</v>
+        <v>1.02802321835871</v>
       </c>
       <c r="L23">
-        <v>1.022402100125402</v>
+        <v>1.022924997817902</v>
       </c>
       <c r="M23">
-        <v>1.033057660499795</v>
+        <v>1.0334669974338</v>
       </c>
       <c r="N23">
-        <v>1.019857179080359</v>
+        <v>1.021428302596475</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034735287941271</v>
+        <v>1.035059253223396</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030645937713304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03095883929164</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019959653416658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9939201750154346</v>
+        <v>0.9935237830013883</v>
       </c>
       <c r="D24">
-        <v>1.01645174028257</v>
+        <v>1.016055297495778</v>
       </c>
       <c r="E24">
-        <v>1.011955120484858</v>
+        <v>1.011661400266777</v>
       </c>
       <c r="F24">
-        <v>1.022602486637235</v>
+        <v>1.022368205087664</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043721250346744</v>
+        <v>1.043578759753297</v>
       </c>
       <c r="J24">
-        <v>1.021654288328027</v>
+        <v>1.021273429083849</v>
       </c>
       <c r="K24">
-        <v>1.030195975975514</v>
+        <v>1.029806210900068</v>
       </c>
       <c r="L24">
-        <v>1.025775493867014</v>
+        <v>1.025486777393271</v>
       </c>
       <c r="M24">
-        <v>1.036243972677215</v>
+        <v>1.036013575695649</v>
       </c>
       <c r="N24">
-        <v>1.023105154602837</v>
+        <v>1.021732704330374</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037257056284298</v>
+        <v>1.037074711672457</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032472904931432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032211219293296</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020289251413451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000790100832516</v>
+        <v>0.9997487478383978</v>
       </c>
       <c r="D25">
-        <v>1.020813432357894</v>
+        <v>1.019845046956509</v>
       </c>
       <c r="E25">
-        <v>1.017231480703884</v>
+        <v>1.016418813897872</v>
       </c>
       <c r="F25">
-        <v>1.027645920474678</v>
+        <v>1.027005683193127</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044939913789649</v>
+        <v>1.044549000308953</v>
       </c>
       <c r="J25">
-        <v>1.025290904158364</v>
+        <v>1.024284570580469</v>
       </c>
       <c r="K25">
-        <v>1.033097015456391</v>
+        <v>1.03214291157629</v>
       </c>
       <c r="L25">
-        <v>1.029568062131715</v>
+        <v>1.028767485599492</v>
       </c>
       <c r="M25">
-        <v>1.039829709304365</v>
+        <v>1.039198751745516</v>
       </c>
       <c r="N25">
-        <v>1.026746934844779</v>
+        <v>1.023325049498155</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040094933618135</v>
+        <v>1.039595572560616</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034521230714023</v>
+        <v>1.033860217674913</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020755249324882</v>
       </c>
     </row>
   </sheetData>
